--- a/Week7/pricing.xlsx
+++ b/Week7/pricing.xlsx
@@ -1,31 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830D78F-5398-4E19-88E9-BE8E2CED7B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Usuwamy 1 rok</t>
+  </si>
+  <si>
+    <t>Usuwamy 2 rok</t>
+  </si>
+  <si>
+    <t>Usuwamy 3 rok</t>
+  </si>
+  <si>
+    <t>Rok</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Cena 1G/Mc</t>
+  </si>
+  <si>
+    <t>Op. zapisu</t>
+  </si>
+  <si>
+    <t>Cena za 10000 operacji</t>
+  </si>
+  <si>
+    <t>Op. Odczytu</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Hot (T)</t>
+  </si>
+  <si>
+    <t>Archive (T)</t>
+  </si>
+  <si>
+    <t>Odtwarzanie (T)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,8 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +393,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD172BD7-7D7F-4866-88DA-EB4A7195EB7F}">
+  <dimension ref="A3:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>15000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>15000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" ref="B6:B15" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>15000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>15000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>15000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>15000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C69" si="1">C9+1-1</f>
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>15000</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <v>15000</v>
+      </c>
+      <c r="E11">
+        <f>E10+30</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>15000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E75" si="2">E11+30</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>15000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <v>15000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D15">
+        <v>15000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D16">
+        <v>15000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>B16+1</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>15000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" ref="B18:B27" si="3">B17+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D18">
+        <v>15000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>15000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D20">
+        <v>15000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D21">
+        <v>15000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D22">
+        <v>15000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D23">
+        <v>15000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <v>15000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D25">
+        <v>15000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D26">
+        <v>15000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D27">
+        <v>15000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>180</v>
+      </c>
+      <c r="D28">
+        <v>15000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B28+1</f>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D29">
+        <v>15000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" ref="B30:B39" si="4">B29+1</f>
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D30">
+        <v>15000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D31">
+        <v>15000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D32">
+        <v>15000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D33">
+        <v>15000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>15000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D35">
+        <v>15000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D36">
+        <v>15000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D37">
+        <v>15000</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D38">
+        <v>15000</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D39">
+        <v>15000</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D40">
+        <v>15000</v>
+      </c>
+      <c r="E40">
+        <f>930-360</f>
+        <v>570</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>15000</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>B40+1</f>
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>180</v>
+      </c>
+      <c r="D41">
+        <v>15000</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" ref="B42:B51" si="5">B41+1</f>
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D42">
+        <v>15000</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D43">
+        <v>15000</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D44">
+        <v>15000</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D45">
+        <v>15000</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D46">
+        <v>15000</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D47">
+        <v>15000</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D48">
+        <v>15000</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <v>15000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D50">
+        <v>15000</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D51">
+        <v>15000</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D52">
+        <v>15000</v>
+      </c>
+      <c r="E52">
+        <f>930-360</f>
+        <v>570</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>15000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>B52+1</f>
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D53">
+        <v>15000</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" ref="B54:B63" si="6">B53+1</f>
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D54">
+        <v>15000</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D55">
+        <v>15000</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D56">
+        <v>15000</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D57">
+        <v>15000</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D58">
+        <v>15000</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D59">
+        <v>15000</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D60">
+        <v>15000</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D61">
+        <v>15000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D62">
+        <v>15000</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D63">
+        <v>15000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D64">
+        <v>15000</v>
+      </c>
+      <c r="E64">
+        <f>930-360</f>
+        <v>570</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>15000</v>
+      </c>
+      <c r="H64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>B64+1</f>
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D65">
+        <v>15000</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" ref="B66:B75" si="7">B65+1</f>
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D66">
+        <v>15000</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D67">
+        <v>15000</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D68">
+        <v>15000</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="D69">
+        <v>15000</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C75" si="8">C69+1-1</f>
+        <v>180</v>
+      </c>
+      <c r="D70">
+        <v>15000</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="D71">
+        <v>15000</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="D72">
+        <v>15000</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="D73">
+        <v>15000</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="D74">
+        <v>15000</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="D75">
+        <v>15000</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f>SUM(C4:C75)</f>
+        <v>12510</v>
+      </c>
+      <c r="D76">
+        <f>SUM(D4:D75)</f>
+        <v>1080000</v>
+      </c>
+      <c r="E76">
+        <f>SUM(E4:E75)</f>
+        <v>40410</v>
+      </c>
+      <c r="F76">
+        <f>SUM(F4:F75)</f>
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <f>SUM(G4:G75)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="E78">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F78">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="G79">
+        <v>4.6382000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f>ROUND(1024*C76*C78,2)</f>
+        <v>238270.46</v>
+      </c>
+      <c r="D80">
+        <f>ROUND(D76*D79/10000,2)</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E80">
+        <f>ROUND(1024*E76*E78,2)</f>
+        <v>70345.73</v>
+      </c>
+      <c r="F80">
+        <f>ROUND(1024*F76*F78,2)</f>
+        <v>266.64999999999998</v>
+      </c>
+      <c r="G80">
+        <f>ROUND(G76*G79/10000,2)</f>
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1">
+        <f>SUM(C80+D80+E80+F80+G80)</f>
+        <v>308919.87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>